--- a/techniqo/data_new_ticker/SFL.xlsx
+++ b/techniqo/data_new_ticker/SFL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G890"/>
+  <dimension ref="A1:G892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31536,6 +31536,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>1549.7</v>
+      </c>
+      <c r="C891" t="n">
+        <v>1578.4</v>
+      </c>
+      <c r="D891" t="n">
+        <v>1470.05</v>
+      </c>
+      <c r="E891" t="n">
+        <v>1486.65</v>
+      </c>
+      <c r="F891" t="n">
+        <v>23703</v>
+      </c>
+      <c r="G891" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>1520</v>
+      </c>
+      <c r="C892" t="n">
+        <v>1575</v>
+      </c>
+      <c r="D892" t="n">
+        <v>1496</v>
+      </c>
+      <c r="E892" t="n">
+        <v>1547.1</v>
+      </c>
+      <c r="F892" t="n">
+        <v>32842</v>
+      </c>
+      <c r="G892" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SFL.xlsx
+++ b/techniqo/data_new_ticker/SFL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G892"/>
+  <dimension ref="A1:G894"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31586,6 +31586,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>1558</v>
+      </c>
+      <c r="C893" t="n">
+        <v>1568.9</v>
+      </c>
+      <c r="D893" t="n">
+        <v>1521.15</v>
+      </c>
+      <c r="E893" t="n">
+        <v>1553.15</v>
+      </c>
+      <c r="F893" t="n">
+        <v>39311</v>
+      </c>
+      <c r="G893" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C894" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D894" t="n">
+        <v>1510</v>
+      </c>
+      <c r="E894" t="n">
+        <v>1525.75</v>
+      </c>
+      <c r="F894" t="n">
+        <v>47434</v>
+      </c>
+      <c r="G894" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
